--- a/excel_IO/Book1.xlsx
+++ b/excel_IO/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_NGHIEN CUU\_Github\py_dynamo_revit\excel_IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F55F34F-A742-4DEC-9D39-242A8D696BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54907B1-3FCD-4020-A8D1-44586CF8C7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2625" windowWidth="19200" windowHeight="12975" activeTab="2" xr2:uid="{635CCD92-EFD4-4D63-84E2-CE5387D06B5B}"/>
+    <workbookView xWindow="9600" yWindow="2625" windowWidth="19200" windowHeight="12975" xr2:uid="{635CCD92-EFD4-4D63-84E2-CE5387D06B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Column A</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Row 6</t>
+  </si>
+  <si>
+    <t>Data789</t>
   </si>
 </sst>
 </file>
@@ -417,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92FFB08-32AD-48E7-B32C-B4DE3108179F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -449,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -457,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -465,7 +468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -473,12 +476,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7544F5-2C63-4AEF-B4EC-8EB366FAE132}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
